--- a/Team-Data/2013-14/1-22-2013-14.xlsx
+++ b/Team-Data/2013-14/1-22-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="n">
         <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>0.537</v>
+        <v>0.525</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
@@ -687,10 +754,10 @@
         <v>82.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L2" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="M2" t="n">
         <v>25.5</v>
@@ -699,22 +766,22 @@
         <v>0.367</v>
       </c>
       <c r="O2" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P2" t="n">
         <v>21.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.784</v>
+        <v>0.781</v>
       </c>
       <c r="R2" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S2" t="n">
         <v>31.8</v>
       </c>
       <c r="T2" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U2" t="n">
         <v>25.6</v>
@@ -723,46 +790,46 @@
         <v>15.2</v>
       </c>
       <c r="W2" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X2" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.4</v>
+        <v>102.2</v>
       </c>
       <c r="AC2" t="n">
         <v>1.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
         <v>14</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
         <v>8</v>
@@ -774,7 +841,7 @@
         <v>4</v>
       </c>
       <c r="AN2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="n">
         <v>18</v>
@@ -798,13 +865,13 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW2" t="n">
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -848,37 +915,37 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
         <v>29</v>
       </c>
       <c r="G3" t="n">
-        <v>0.341</v>
+        <v>0.326</v>
       </c>
       <c r="H3" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="J3" t="n">
-        <v>83.2</v>
+        <v>83</v>
       </c>
       <c r="K3" t="n">
         <v>0.438</v>
       </c>
       <c r="L3" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="M3" t="n">
-        <v>19.2</v>
+        <v>18.8</v>
       </c>
       <c r="N3" t="n">
-        <v>0.332</v>
+        <v>0.328</v>
       </c>
       <c r="O3" t="n">
         <v>16.1</v>
@@ -887,13 +954,13 @@
         <v>21</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.766</v>
+        <v>0.768</v>
       </c>
       <c r="R3" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S3" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="T3" t="n">
         <v>42.8</v>
@@ -902,13 +969,13 @@
         <v>19.7</v>
       </c>
       <c r="V3" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W3" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y3" t="n">
         <v>4.6</v>
@@ -917,19 +984,19 @@
         <v>21.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="AC3" t="n">
-        <v>-3.5</v>
+        <v>-3.7</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
         <v>27</v>
@@ -938,10 +1005,10 @@
         <v>26</v>
       </c>
       <c r="AH3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ3" t="n">
         <v>14</v>
@@ -968,7 +1035,7 @@
         <v>11</v>
       </c>
       <c r="AR3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AS3" t="n">
         <v>20</v>
@@ -983,19 +1050,19 @@
         <v>22</v>
       </c>
       <c r="AW3" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AX3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ3" t="n">
         <v>22</v>
       </c>
       <c r="BA3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BB3" t="n">
         <v>25</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -1108,10 +1175,10 @@
         <v>-2.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF4" t="n">
         <v>18</v>
@@ -1135,7 +1202,7 @@
         <v>14</v>
       </c>
       <c r="AM4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN4" t="n">
         <v>8</v>
@@ -1150,7 +1217,7 @@
         <v>13</v>
       </c>
       <c r="AR4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS4" t="n">
         <v>23</v>
@@ -1162,16 +1229,16 @@
         <v>18</v>
       </c>
       <c r="AV4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
         <v>18</v>
       </c>
       <c r="AX4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ4" t="n">
         <v>23</v>
@@ -1183,7 +1250,7 @@
         <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
         <v>25</v>
       </c>
       <c r="G5" t="n">
-        <v>0.432</v>
+        <v>0.419</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
@@ -1230,10 +1297,10 @@
         <v>35</v>
       </c>
       <c r="J5" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.432</v>
+        <v>0.431</v>
       </c>
       <c r="L5" t="n">
         <v>5.5</v>
@@ -1245,16 +1312,16 @@
         <v>0.348</v>
       </c>
       <c r="O5" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P5" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.729</v>
+        <v>0.731</v>
       </c>
       <c r="R5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S5" t="n">
         <v>32.6</v>
@@ -1263,7 +1330,7 @@
         <v>41.8</v>
       </c>
       <c r="U5" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V5" t="n">
         <v>12.8</v>
@@ -1272,7 +1339,7 @@
         <v>6.4</v>
       </c>
       <c r="X5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
         <v>5.7</v>
@@ -1287,7 +1354,7 @@
         <v>94</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.7</v>
+        <v>-2.8</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1296,7 +1363,7 @@
         <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
         <v>19</v>
@@ -1308,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="AJ5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK5" t="n">
         <v>27</v>
@@ -1320,16 +1387,16 @@
         <v>29</v>
       </c>
       <c r="AN5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO5" t="n">
         <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ5" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AR5" t="n">
         <v>27</v>
@@ -1350,7 +1417,7 @@
         <v>29</v>
       </c>
       <c r="AX5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY5" t="n">
         <v>23</v>
@@ -1365,7 +1432,7 @@
         <v>28</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.512</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
         <v>49</v>
@@ -1412,31 +1479,31 @@
         <v>34.5</v>
       </c>
       <c r="J6" t="n">
-        <v>80.90000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.427</v>
+        <v>0.425</v>
       </c>
       <c r="L6" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M6" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.339</v>
+        <v>0.334</v>
       </c>
       <c r="O6" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P6" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q6" t="n">
         <v>0.769</v>
       </c>
       <c r="R6" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="S6" t="n">
         <v>33.1</v>
@@ -1448,7 +1515,7 @@
         <v>22.3</v>
       </c>
       <c r="V6" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="W6" t="n">
         <v>7.1</v>
@@ -1457,22 +1524,22 @@
         <v>5.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>93</v>
+        <v>92.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1490,10 +1557,10 @@
         <v>30</v>
       </c>
       <c r="AJ6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
         <v>28</v>
@@ -1502,25 +1569,25 @@
         <v>27</v>
       </c>
       <c r="AN6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
         <v>12</v>
       </c>
       <c r="AQ6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU6" t="n">
         <v>12</v>
@@ -1529,10 +1596,10 @@
         <v>27</v>
       </c>
       <c r="AW6" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AX6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
       </c>
       <c r="F7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>0.357</v>
+        <v>0.366</v>
       </c>
       <c r="H7" t="n">
         <v>49</v>
       </c>
       <c r="I7" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J7" t="n">
         <v>85.59999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.425</v>
+        <v>0.427</v>
       </c>
       <c r="L7" t="n">
         <v>7.2</v>
@@ -1606,37 +1673,37 @@
         <v>19.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.363</v>
+        <v>0.362</v>
       </c>
       <c r="O7" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P7" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.746</v>
+        <v>0.747</v>
       </c>
       <c r="R7" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="S7" t="n">
-        <v>32.2</v>
+        <v>32.4</v>
       </c>
       <c r="T7" t="n">
         <v>44.5</v>
       </c>
       <c r="U7" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V7" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W7" t="n">
         <v>7.1</v>
       </c>
       <c r="X7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y7" t="n">
         <v>6</v>
@@ -1645,22 +1712,22 @@
         <v>20</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.5</v>
+        <v>96.7</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5.5</v>
+        <v>-5.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
         <v>24</v>
@@ -1669,19 +1736,19 @@
         <v>2</v>
       </c>
       <c r="AI7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL7" t="n">
         <v>20</v>
       </c>
       <c r="AM7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN7" t="n">
         <v>13</v>
@@ -1690,13 +1757,13 @@
         <v>19</v>
       </c>
       <c r="AP7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
         <v>22</v>
       </c>
       <c r="AR7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS7" t="n">
         <v>15</v>
@@ -1708,10 +1775,10 @@
         <v>29</v>
       </c>
       <c r="AV7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AX7" t="n">
         <v>26</v>
@@ -1720,10 +1787,10 @@
         <v>27</v>
       </c>
       <c r="AZ7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB7" t="n">
         <v>22</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -1758,67 +1825,67 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" t="n">
         <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.581</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>39.5</v>
+        <v>39.7</v>
       </c>
       <c r="J8" t="n">
-        <v>84</v>
+        <v>84.2</v>
       </c>
       <c r="K8" t="n">
         <v>0.471</v>
       </c>
       <c r="L8" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="M8" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="N8" t="n">
         <v>0.377</v>
       </c>
       <c r="O8" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P8" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.793</v>
+        <v>0.794</v>
       </c>
       <c r="R8" t="n">
         <v>9.6</v>
       </c>
       <c r="S8" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T8" t="n">
-        <v>39.8</v>
+        <v>39.9</v>
       </c>
       <c r="U8" t="n">
         <v>23.5</v>
       </c>
       <c r="V8" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W8" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="X8" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y8" t="n">
         <v>3.5</v>
@@ -1830,10 +1897,10 @@
         <v>18.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.5</v>
+        <v>104</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1845,7 +1912,7 @@
         <v>10</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
         <v>28</v>
@@ -1860,7 +1927,7 @@
         <v>4</v>
       </c>
       <c r="AL8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM8" t="n">
         <v>10</v>
@@ -1869,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AP8" t="n">
         <v>27</v>
@@ -1878,7 +1945,7 @@
         <v>3</v>
       </c>
       <c r="AR8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS8" t="n">
         <v>26</v>
@@ -1887,10 +1954,10 @@
         <v>29</v>
       </c>
       <c r="AU8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1902,13 +1969,13 @@
         <v>3</v>
       </c>
       <c r="AZ8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA8" t="n">
         <v>29</v>
       </c>
       <c r="BB8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BC8" t="n">
         <v>12</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -2018,28 +2085,28 @@
         <v>0.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
         <v>12</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
         <v>30</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
         <v>7</v>
       </c>
       <c r="AK9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
         <v>10</v>
@@ -2048,16 +2115,16 @@
         <v>9</v>
       </c>
       <c r="AN9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR9" t="n">
         <v>5</v>
@@ -2075,10 +2142,10 @@
         <v>12</v>
       </c>
       <c r="AW9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
         <v>20</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -2122,22 +2189,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" t="n">
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" t="n">
-        <v>0.405</v>
+        <v>0.415</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J10" t="n">
         <v>85.59999999999999</v>
@@ -2149,58 +2216,58 @@
         <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N10" t="n">
-        <v>0.306</v>
+        <v>0.307</v>
       </c>
       <c r="O10" t="n">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="P10" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.664</v>
+        <v>0.662</v>
       </c>
       <c r="R10" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="S10" t="n">
         <v>30.3</v>
       </c>
       <c r="T10" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="U10" t="n">
         <v>20.4</v>
       </c>
       <c r="V10" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W10" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X10" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y10" t="n">
         <v>4.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC10" t="n">
         <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
         <v>20</v>
@@ -2218,7 +2285,7 @@
         <v>11</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK10" t="n">
         <v>18</v>
@@ -2227,7 +2294,7 @@
         <v>27</v>
       </c>
       <c r="AM10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN10" t="n">
         <v>30</v>
@@ -2236,7 +2303,7 @@
         <v>17</v>
       </c>
       <c r="AP10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ10" t="n">
         <v>30</v>
@@ -2254,19 +2321,19 @@
         <v>21</v>
       </c>
       <c r="AV10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AW10" t="n">
         <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY10" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA10" t="n">
         <v>13</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2415,10 +2482,10 @@
         <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ11" t="n">
         <v>24</v>
@@ -2427,7 +2494,7 @@
         <v>16</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT11" t="n">
         <v>4</v>
@@ -2442,19 +2509,19 @@
         <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA11" t="n">
         <v>18</v>
       </c>
       <c r="BB11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC11" t="n">
         <v>8</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" t="n">
         <v>15</v>
       </c>
       <c r="G12" t="n">
-        <v>0.659</v>
+        <v>0.651</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J12" t="n">
-        <v>79.2</v>
+        <v>79</v>
       </c>
       <c r="K12" t="n">
         <v>0.473</v>
@@ -2513,34 +2580,34 @@
         <v>9</v>
       </c>
       <c r="M12" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="N12" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="O12" t="n">
         <v>21.9</v>
       </c>
       <c r="P12" t="n">
-        <v>31.8</v>
+        <v>31.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="R12" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S12" t="n">
-        <v>34.3</v>
+        <v>34.1</v>
       </c>
       <c r="T12" t="n">
-        <v>45.4</v>
+        <v>45.2</v>
       </c>
       <c r="U12" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="V12" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="W12" t="n">
         <v>7.4</v>
@@ -2555,31 +2622,31 @@
         <v>20.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>105.9</v>
+        <v>105.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ12" t="n">
         <v>28</v>
@@ -2591,7 +2658,7 @@
         <v>6</v>
       </c>
       <c r="AM12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN12" t="n">
         <v>24</v>
@@ -2609,13 +2676,13 @@
         <v>17</v>
       </c>
       <c r="AS12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AV12" t="n">
         <v>28</v>
@@ -2630,13 +2697,13 @@
         <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
       </c>
       <c r="BB12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -2668,34 +2735,34 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" t="n">
         <v>33</v>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" t="n">
-        <v>0.805</v>
+        <v>0.825</v>
       </c>
       <c r="H13" t="n">
         <v>48.1</v>
       </c>
       <c r="I13" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J13" t="n">
-        <v>79.8</v>
+        <v>80</v>
       </c>
       <c r="K13" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L13" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M13" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N13" t="n">
         <v>0.364</v>
@@ -2704,37 +2771,37 @@
         <v>17.9</v>
       </c>
       <c r="P13" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.788</v>
+        <v>0.791</v>
       </c>
       <c r="R13" t="n">
         <v>9.9</v>
       </c>
       <c r="S13" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="T13" t="n">
-        <v>44.7</v>
+        <v>44.9</v>
       </c>
       <c r="U13" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="V13" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W13" t="n">
         <v>7.2</v>
       </c>
       <c r="X13" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="AA13" t="n">
         <v>21.7</v>
@@ -2743,10 +2810,10 @@
         <v>98.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2767,16 +2834,16 @@
         <v>27</v>
       </c>
       <c r="AK13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO13" t="n">
         <v>13</v>
@@ -2791,28 +2858,28 @@
         <v>23</v>
       </c>
       <c r="AS13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT13" t="n">
         <v>9</v>
       </c>
       <c r="AU13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW13" t="n">
         <v>20</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA13" t="n">
         <v>6</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" t="n">
         <v>29</v>
       </c>
       <c r="F14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.659</v>
+        <v>0.674</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,10 +2935,10 @@
         <v>38.2</v>
       </c>
       <c r="J14" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.464</v>
+        <v>0.465</v>
       </c>
       <c r="L14" t="n">
         <v>8.1</v>
@@ -2880,13 +2947,13 @@
         <v>24.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.334</v>
+        <v>0.337</v>
       </c>
       <c r="O14" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="P14" t="n">
-        <v>28.8</v>
+        <v>29.2</v>
       </c>
       <c r="Q14" t="n">
         <v>0.73</v>
@@ -2913,19 +2980,19 @@
         <v>4.8</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Z14" t="n">
         <v>21.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="AB14" t="n">
-        <v>105.4</v>
+        <v>105.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2940,10 +3007,10 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ14" t="n">
         <v>23</v>
@@ -2952,22 +3019,22 @@
         <v>6</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
         <v>7</v>
       </c>
       <c r="AN14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP14" t="n">
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AR14" t="n">
         <v>21</v>
@@ -2976,7 +3043,7 @@
         <v>12</v>
       </c>
       <c r="AT14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
@@ -2985,7 +3052,7 @@
         <v>8</v>
       </c>
       <c r="AW14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX14" t="n">
         <v>15</v>
@@ -3000,10 +3067,10 @@
         <v>2</v>
       </c>
       <c r="BB14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC14" t="n">
         <v>5</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>6</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -3110,19 +3177,19 @@
         <v>-5.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>21</v>
       </c>
       <c r="AF15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG15" t="n">
         <v>22</v>
       </c>
       <c r="AH15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI15" t="n">
         <v>19</v>
@@ -3146,10 +3213,10 @@
         <v>14</v>
       </c>
       <c r="AP15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR15" t="n">
         <v>22</v>
@@ -3158,7 +3225,7 @@
         <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU15" t="n">
         <v>10</v>
@@ -3173,10 +3240,10 @@
         <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA15" t="n">
         <v>26</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -3292,25 +3359,25 @@
         <v>-0.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF16" t="n">
         <v>12</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
         <v>14</v>
       </c>
       <c r="AI16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK16" t="n">
         <v>13</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
         <v>25</v>
@@ -3340,7 +3407,7 @@
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU16" t="n">
         <v>15</v>
@@ -3367,7 +3434,7 @@
         <v>24</v>
       </c>
       <c r="BC16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3498,22 +3565,22 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN17" t="n">
         <v>7</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV17" t="n">
         <v>16</v>
@@ -3534,13 +3601,13 @@
         <v>3</v>
       </c>
       <c r="AX17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA17" t="n">
         <v>11</v>
@@ -3549,7 +3616,7 @@
         <v>8</v>
       </c>
       <c r="BC17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -3578,37 +3645,37 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
         <v>33</v>
       </c>
       <c r="G18" t="n">
-        <v>0.195</v>
+        <v>0.175</v>
       </c>
       <c r="H18" t="n">
         <v>48.9</v>
       </c>
       <c r="I18" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="J18" t="n">
         <v>82.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.422</v>
+        <v>0.42</v>
       </c>
       <c r="L18" t="n">
         <v>7.2</v>
       </c>
       <c r="M18" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.347</v>
+        <v>0.349</v>
       </c>
       <c r="O18" t="n">
         <v>14.8</v>
@@ -3617,7 +3684,7 @@
         <v>19.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.755</v>
+        <v>0.758</v>
       </c>
       <c r="R18" t="n">
         <v>11.3</v>
@@ -3626,37 +3693,37 @@
         <v>30.1</v>
       </c>
       <c r="T18" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U18" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="V18" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W18" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X18" t="n">
         <v>5.6</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z18" t="n">
         <v>20.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>91.7</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8.9</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3680,40 +3747,40 @@
         <v>30</v>
       </c>
       <c r="AL18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM18" t="n">
         <v>17</v>
       </c>
       <c r="AN18" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AO18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP18" t="n">
         <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS18" t="n">
         <v>28</v>
       </c>
       <c r="AT18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV18" t="n">
         <v>26</v>
       </c>
       <c r="AW18" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AX18" t="n">
         <v>7</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -3838,22 +3905,22 @@
         <v>5</v>
       </c>
       <c r="AD19" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ19" t="n">
         <v>1</v>
@@ -3862,7 +3929,7 @@
         <v>25</v>
       </c>
       <c r="AL19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM19" t="n">
         <v>12</v>
@@ -3871,7 +3938,7 @@
         <v>23</v>
       </c>
       <c r="AO19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -4020,13 +4087,13 @@
         <v>-2.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
         <v>21</v>
       </c>
       <c r="AF20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG20" t="n">
         <v>21</v>
@@ -4041,7 +4108,7 @@
         <v>8</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL20" t="n">
         <v>26</v>
@@ -4074,7 +4141,7 @@
         <v>14</v>
       </c>
       <c r="AV20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
         <v>10</v>
@@ -4095,7 +4162,7 @@
         <v>15</v>
       </c>
       <c r="BC20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
       </c>
       <c r="F21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>0.357</v>
+        <v>0.366</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
@@ -4148,25 +4215,25 @@
         <v>0.433</v>
       </c>
       <c r="L21" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M21" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.356</v>
+        <v>0.352</v>
       </c>
       <c r="O21" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="P21" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="R21" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S21" t="n">
         <v>29.6</v>
@@ -4175,7 +4242,7 @@
         <v>40.3</v>
       </c>
       <c r="U21" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V21" t="n">
         <v>12.9</v>
@@ -4184,7 +4251,7 @@
         <v>8</v>
       </c>
       <c r="X21" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="Y21" t="n">
         <v>3.8</v>
@@ -4193,28 +4260,28 @@
         <v>22.6</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>95.2</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC21" t="n">
         <v>-4.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
         <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG21" t="n">
         <v>24</v>
       </c>
       <c r="AH21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI21" t="n">
         <v>26</v>
@@ -4226,13 +4293,13 @@
         <v>26</v>
       </c>
       <c r="AL21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM21" t="n">
         <v>8</v>
       </c>
       <c r="AN21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO21" t="n">
         <v>28</v>
@@ -4241,7 +4308,7 @@
         <v>28</v>
       </c>
       <c r="AQ21" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR21" t="n">
         <v>20</v>
@@ -4253,7 +4320,7 @@
         <v>27</v>
       </c>
       <c r="AU21" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AV21" t="n">
         <v>2</v>
@@ -4262,16 +4329,16 @@
         <v>12</v>
       </c>
       <c r="AX21" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AY21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ21" t="n">
         <v>29</v>
       </c>
       <c r="BA21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -4306,58 +4373,58 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22" t="n">
         <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>0.767</v>
+        <v>0.762</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
       </c>
       <c r="I22" t="n">
-        <v>38.9</v>
+        <v>38.7</v>
       </c>
       <c r="J22" t="n">
         <v>83</v>
       </c>
       <c r="K22" t="n">
-        <v>0.468</v>
+        <v>0.466</v>
       </c>
       <c r="L22" t="n">
         <v>7.1</v>
       </c>
       <c r="M22" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="N22" t="n">
-        <v>0.353</v>
+        <v>0.349</v>
       </c>
       <c r="O22" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="P22" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="R22" t="n">
         <v>11.3</v>
       </c>
       <c r="S22" t="n">
-        <v>35.2</v>
+        <v>35.4</v>
       </c>
       <c r="T22" t="n">
-        <v>46.5</v>
+        <v>46.7</v>
       </c>
       <c r="U22" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V22" t="n">
         <v>15.6</v>
@@ -4372,34 +4439,34 @@
         <v>4</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.5</v>
+        <v>105.3</v>
       </c>
       <c r="AC22" t="n">
         <v>7.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH22" t="n">
         <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ22" t="n">
         <v>15</v>
@@ -4414,25 +4481,25 @@
         <v>20</v>
       </c>
       <c r="AN22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO22" t="n">
         <v>4</v>
       </c>
       <c r="AP22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS22" t="n">
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
         <v>16</v>
@@ -4450,13 +4517,13 @@
         <v>7</v>
       </c>
       <c r="AZ22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BB22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -4488,55 +4555,55 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" t="n">
         <v>11</v>
       </c>
       <c r="F23" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" t="n">
-        <v>0.256</v>
+        <v>0.262</v>
       </c>
       <c r="H23" t="n">
         <v>48.8</v>
       </c>
       <c r="I23" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J23" t="n">
         <v>82.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L23" t="n">
         <v>7.2</v>
       </c>
       <c r="M23" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.343</v>
+        <v>0.341</v>
       </c>
       <c r="O23" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="P23" t="n">
         <v>21.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.756</v>
+        <v>0.753</v>
       </c>
       <c r="R23" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S23" t="n">
-        <v>33.1</v>
+        <v>33.3</v>
       </c>
       <c r="T23" t="n">
-        <v>42.4</v>
+        <v>42.6</v>
       </c>
       <c r="U23" t="n">
         <v>20.5</v>
@@ -4548,7 +4615,7 @@
         <v>7.4</v>
       </c>
       <c r="X23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y23" t="n">
         <v>5.9</v>
@@ -4557,16 +4624,16 @@
         <v>20.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.2</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.9</v>
+        <v>-6</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4578,49 +4645,49 @@
         <v>29</v>
       </c>
       <c r="AH23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI23" t="n">
         <v>23</v>
       </c>
       <c r="AJ23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK23" t="n">
         <v>21</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>19</v>
       </c>
       <c r="AL23" t="n">
         <v>18</v>
       </c>
       <c r="AM23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN23" t="n">
         <v>25</v>
       </c>
       <c r="AO23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP23" t="n">
         <v>22</v>
       </c>
       <c r="AQ23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR23" t="n">
         <v>26</v>
       </c>
       <c r="AS23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AT23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU23" t="n">
         <v>20</v>
       </c>
       <c r="AV23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AW23" t="n">
         <v>16</v>
@@ -4629,13 +4696,13 @@
         <v>27</v>
       </c>
       <c r="AY23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
         <v>11</v>
       </c>
       <c r="BA23" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BB23" t="n">
         <v>23</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -4670,61 +4737,61 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" t="n">
         <v>28</v>
       </c>
       <c r="G24" t="n">
-        <v>0.333</v>
+        <v>0.317</v>
       </c>
       <c r="H24" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I24" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J24" t="n">
         <v>88.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L24" t="n">
         <v>6.9</v>
       </c>
       <c r="M24" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="N24" t="n">
-        <v>0.32</v>
+        <v>0.315</v>
       </c>
       <c r="O24" t="n">
         <v>16.3</v>
       </c>
       <c r="P24" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="Q24" t="n">
         <v>0.707</v>
       </c>
       <c r="R24" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S24" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="T24" t="n">
-        <v>45.1</v>
+        <v>44.9</v>
       </c>
       <c r="U24" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V24" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="W24" t="n">
         <v>8.9</v>
@@ -4733,34 +4800,34 @@
         <v>4.3</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA24" t="n">
         <v>20.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>101.4</v>
+        <v>101.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>-8.4</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF24" t="n">
         <v>26</v>
       </c>
       <c r="AG24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI24" t="n">
         <v>4</v>
@@ -4769,13 +4836,13 @@
         <v>2</v>
       </c>
       <c r="AK24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN24" t="n">
         <v>29</v>
@@ -4790,16 +4857,16 @@
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AS24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT24" t="n">
         <v>8</v>
       </c>
       <c r="AU24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4817,7 +4884,7 @@
         <v>20</v>
       </c>
       <c r="BA24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB24" t="n">
         <v>14</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -4852,67 +4919,67 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" t="n">
         <v>17</v>
       </c>
       <c r="G25" t="n">
-        <v>0.585</v>
+        <v>0.575</v>
       </c>
       <c r="H25" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I25" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J25" t="n">
-        <v>85</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.456</v>
+        <v>0.453</v>
       </c>
       <c r="L25" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M25" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="N25" t="n">
-        <v>0.367</v>
+        <v>0.362</v>
       </c>
       <c r="O25" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P25" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.747</v>
+        <v>0.748</v>
       </c>
       <c r="R25" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S25" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T25" t="n">
-        <v>43.6</v>
+        <v>43.8</v>
       </c>
       <c r="U25" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="V25" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W25" t="n">
         <v>8.5</v>
       </c>
       <c r="X25" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y25" t="n">
         <v>4.2</v>
@@ -4921,16 +4988,16 @@
         <v>21.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>104.4</v>
+        <v>103.9</v>
       </c>
       <c r="AC25" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4939,43 +5006,43 @@
         <v>8</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
         <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ25" t="n">
         <v>6</v>
       </c>
       <c r="AK25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL25" t="n">
         <v>3</v>
       </c>
       <c r="AM25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO25" t="n">
         <v>16</v>
       </c>
       <c r="AP25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ25" t="n">
         <v>21</v>
       </c>
       <c r="AR25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT25" t="n">
         <v>12</v>
@@ -4990,7 +5057,7 @@
         <v>7</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY25" t="n">
         <v>9</v>
@@ -4999,10 +5066,10 @@
         <v>19</v>
       </c>
       <c r="BA25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BB25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>5.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
         <v>4</v>
@@ -5124,7 +5191,7 @@
         <v>4</v>
       </c>
       <c r="AH26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
@@ -5133,7 +5200,7 @@
         <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL26" t="n">
         <v>1</v>
@@ -5160,13 +5227,13 @@
         <v>6</v>
       </c>
       <c r="AT26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU26" t="n">
         <v>3</v>
       </c>
       <c r="AV26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW26" t="n">
         <v>30</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -5216,46 +5283,46 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
       </c>
       <c r="F27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G27" t="n">
-        <v>0.366</v>
+        <v>0.375</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J27" t="n">
         <v>83.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="M27" t="n">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.352</v>
+        <v>0.35</v>
       </c>
       <c r="O27" t="n">
         <v>19.7</v>
       </c>
       <c r="P27" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.766</v>
+        <v>0.771</v>
       </c>
       <c r="R27" t="n">
         <v>11.8</v>
@@ -5264,13 +5331,13 @@
         <v>31.8</v>
       </c>
       <c r="T27" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="U27" t="n">
         <v>20.1</v>
       </c>
       <c r="V27" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W27" t="n">
         <v>7.7</v>
@@ -5279,7 +5346,7 @@
         <v>4.1</v>
       </c>
       <c r="Y27" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z27" t="n">
         <v>22.7</v>
@@ -5288,76 +5355,76 @@
         <v>22.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.4</v>
+        <v>-1.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
       </c>
       <c r="AF27" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG27" t="n">
         <v>23</v>
       </c>
       <c r="AH27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI27" t="n">
         <v>15</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>16</v>
       </c>
       <c r="AJ27" t="n">
         <v>13</v>
       </c>
       <c r="AK27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO27" t="n">
         <v>5</v>
       </c>
       <c r="AP27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ27" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AR27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AT27" t="n">
         <v>13</v>
       </c>
       <c r="AU27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW27" t="n">
         <v>14</v>
       </c>
       <c r="AX27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ27" t="n">
         <v>30</v>
@@ -5369,7 +5436,7 @@
         <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -5398,55 +5465,55 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" t="n">
         <v>32</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" t="n">
-        <v>0.762</v>
+        <v>0.78</v>
       </c>
       <c r="H28" t="n">
         <v>48.1</v>
       </c>
       <c r="I28" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="J28" t="n">
-        <v>82.59999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="K28" t="n">
-        <v>0.494</v>
+        <v>0.493</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N28" t="n">
-        <v>0.405</v>
+        <v>0.403</v>
       </c>
       <c r="O28" t="n">
         <v>14.8</v>
       </c>
       <c r="P28" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.768</v>
+        <v>0.77</v>
       </c>
       <c r="R28" t="n">
         <v>9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.9</v>
+        <v>34.2</v>
       </c>
       <c r="T28" t="n">
-        <v>42.9</v>
+        <v>43.2</v>
       </c>
       <c r="U28" t="n">
         <v>25.2</v>
@@ -5458,7 +5525,7 @@
         <v>7.6</v>
       </c>
       <c r="X28" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y28" t="n">
         <v>4.7</v>
@@ -5467,25 +5534,25 @@
         <v>17.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB28" t="n">
         <v>104.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF28" t="n">
         <v>2</v>
       </c>
       <c r="AG28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH28" t="n">
         <v>26</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5509,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP28" t="n">
         <v>30</v>
@@ -5521,25 +5588,25 @@
         <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW28" t="n">
         <v>15</v>
       </c>
       <c r="AX28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY28" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -5580,46 +5647,46 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F29" t="n">
         <v>20</v>
       </c>
       <c r="G29" t="n">
-        <v>0.512</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>48.6</v>
       </c>
       <c r="I29" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J29" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L29" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M29" t="n">
         <v>22.6</v>
       </c>
       <c r="N29" t="n">
-        <v>0.359</v>
+        <v>0.361</v>
       </c>
       <c r="O29" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P29" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.768</v>
+        <v>0.771</v>
       </c>
       <c r="R29" t="n">
         <v>12</v>
@@ -5628,37 +5695,37 @@
         <v>31.3</v>
       </c>
       <c r="T29" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U29" t="n">
         <v>20.2</v>
       </c>
       <c r="V29" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W29" t="n">
         <v>7.1</v>
       </c>
       <c r="X29" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA29" t="n">
         <v>22</v>
       </c>
       <c r="AB29" t="n">
-        <v>98.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5670,13 +5737,13 @@
         <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI29" t="n">
         <v>25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK29" t="n">
         <v>24</v>
@@ -5688,10 +5755,10 @@
         <v>11</v>
       </c>
       <c r="AN29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP29" t="n">
         <v>10</v>
@@ -5709,16 +5776,16 @@
         <v>14</v>
       </c>
       <c r="AU29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
       </c>
       <c r="AW29" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AX29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY29" t="n">
         <v>17</v>
@@ -5730,7 +5797,7 @@
         <v>5</v>
       </c>
       <c r="BB29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC29" t="n">
         <v>11</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -5840,19 +5907,19 @@
         <v>-6.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF30" t="n">
         <v>27</v>
       </c>
       <c r="AG30" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AH30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI30" t="n">
         <v>24</v>
@@ -5861,7 +5928,7 @@
         <v>24</v>
       </c>
       <c r="AK30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL30" t="n">
         <v>24</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO30" t="n">
         <v>26</v>
@@ -5879,7 +5946,7 @@
         <v>25</v>
       </c>
       <c r="AQ30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR30" t="n">
         <v>18</v>
@@ -5888,16 +5955,16 @@
         <v>24</v>
       </c>
       <c r="AT30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV30" t="n">
         <v>17</v>
       </c>
       <c r="AW30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX30" t="n">
         <v>13</v>
@@ -5909,7 +5976,7 @@
         <v>18</v>
       </c>
       <c r="BA30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB30" t="n">
         <v>27</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -5944,25 +6011,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E31" t="n">
         <v>20</v>
       </c>
       <c r="F31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G31" t="n">
-        <v>0.488</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="I31" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J31" t="n">
-        <v>83.7</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K31" t="n">
         <v>0.449</v>
@@ -5974,70 +6041,70 @@
         <v>20.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.38</v>
+        <v>0.382</v>
       </c>
       <c r="O31" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="P31" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q31" t="n">
         <v>0.73</v>
       </c>
       <c r="R31" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S31" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="T31" t="n">
-        <v>42.7</v>
+        <v>42.5</v>
       </c>
       <c r="U31" t="n">
         <v>23.1</v>
       </c>
       <c r="V31" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W31" t="n">
         <v>8.4</v>
       </c>
       <c r="X31" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.8</v>
+        <v>98.5</v>
       </c>
       <c r="AC31" t="n">
         <v>-0.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI31" t="n">
         <v>16</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>15</v>
       </c>
       <c r="AJ31" t="n">
         <v>12</v>
@@ -6061,43 +6128,43 @@
         <v>21</v>
       </c>
       <c r="AQ31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR31" t="n">
         <v>19</v>
       </c>
       <c r="AS31" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AT31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU31" t="n">
         <v>8</v>
       </c>
       <c r="AV31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX31" t="n">
         <v>14</v>
       </c>
       <c r="AY31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA31" t="n">
         <v>24</v>
       </c>
       <c r="BB31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-22-2013-14</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
